--- a/Ingreso-Per-Capita.xlsx
+++ b/Ingreso-Per-Capita.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="593">
   <si>
     <t xml:space="preserve">Ubigeo</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Departamento</t>
   </si>
   <si>
-    <t xml:space="preserve">Provincia</t>
+    <t xml:space="preserve">PROVINCIA</t>
   </si>
   <si>
     <t xml:space="preserve">percapitaf</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">020700</t>
   </si>
   <si>
-    <t xml:space="preserve">CARLOS FERMIN FITZCARRALD</t>
+    <t xml:space="preserve">CARLOS F. FITZCARRALD</t>
   </si>
   <si>
     <t xml:space="preserve">163.33277652345785</t>
@@ -1323,6 +1323,15 @@
   </si>
   <si>
     <t xml:space="preserve">205.48713674515912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEM DEL MARANON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.25492502736608</t>
   </si>
   <si>
     <t xml:space="preserve">170100</t>
@@ -4120,21 +4129,21 @@
         <v>437</v>
       </c>
       <c r="B144" t="s">
+        <v>420</v>
+      </c>
+      <c r="C144" t="s">
         <v>438</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>439</v>
-      </c>
-      <c r="D144" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>440</v>
+      </c>
+      <c r="B145" t="s">
         <v>441</v>
-      </c>
-      <c r="B145" t="s">
-        <v>438</v>
       </c>
       <c r="C145" t="s">
         <v>442</v>
@@ -4148,7 +4157,7 @@
         <v>444</v>
       </c>
       <c r="B146" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C146" t="s">
         <v>445</v>
@@ -4162,21 +4171,21 @@
         <v>447</v>
       </c>
       <c r="B147" t="s">
+        <v>441</v>
+      </c>
+      <c r="C147" t="s">
         <v>448</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>449</v>
-      </c>
-      <c r="D147" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>450</v>
+      </c>
+      <c r="B148" t="s">
         <v>451</v>
-      </c>
-      <c r="B148" t="s">
-        <v>448</v>
       </c>
       <c r="C148" t="s">
         <v>452</v>
@@ -4190,7 +4199,7 @@
         <v>454</v>
       </c>
       <c r="B149" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C149" t="s">
         <v>455</v>
@@ -4204,7 +4213,7 @@
         <v>457</v>
       </c>
       <c r="B150" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C150" t="s">
         <v>458</v>
@@ -4218,7 +4227,7 @@
         <v>460</v>
       </c>
       <c r="B151" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C151" t="s">
         <v>461</v>
@@ -4232,7 +4241,7 @@
         <v>463</v>
       </c>
       <c r="B152" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C152" t="s">
         <v>464</v>
@@ -4246,7 +4255,7 @@
         <v>466</v>
       </c>
       <c r="B153" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C153" t="s">
         <v>467</v>
@@ -4260,7 +4269,7 @@
         <v>469</v>
       </c>
       <c r="B154" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C154" t="s">
         <v>470</v>
@@ -4274,7 +4283,7 @@
         <v>472</v>
       </c>
       <c r="B155" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C155" t="s">
         <v>473</v>
@@ -4288,7 +4297,7 @@
         <v>475</v>
       </c>
       <c r="B156" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C156" t="s">
         <v>476</v>
@@ -4302,7 +4311,7 @@
         <v>478</v>
       </c>
       <c r="B157" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C157" t="s">
         <v>479</v>
@@ -4316,7 +4325,7 @@
         <v>481</v>
       </c>
       <c r="B158" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C158" t="s">
         <v>482</v>
@@ -4330,7 +4339,7 @@
         <v>484</v>
       </c>
       <c r="B159" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C159" t="s">
         <v>485</v>
@@ -4344,7 +4353,7 @@
         <v>487</v>
       </c>
       <c r="B160" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C160" t="s">
         <v>488</v>
@@ -4358,7 +4367,7 @@
         <v>490</v>
       </c>
       <c r="B161" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C161" t="s">
         <v>491</v>
@@ -4372,7 +4381,7 @@
         <v>493</v>
       </c>
       <c r="B162" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C162" t="s">
         <v>494</v>
@@ -4386,7 +4395,7 @@
         <v>496</v>
       </c>
       <c r="B163" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C163" t="s">
         <v>497</v>
@@ -4400,7 +4409,7 @@
         <v>499</v>
       </c>
       <c r="B164" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C164" t="s">
         <v>500</v>
@@ -4414,7 +4423,7 @@
         <v>502</v>
       </c>
       <c r="B165" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C165" t="s">
         <v>503</v>
@@ -4428,7 +4437,7 @@
         <v>505</v>
       </c>
       <c r="B166" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C166" t="s">
         <v>506</v>
@@ -4442,7 +4451,7 @@
         <v>508</v>
       </c>
       <c r="B167" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C167" t="s">
         <v>509</v>
@@ -4456,7 +4465,7 @@
         <v>511</v>
       </c>
       <c r="B168" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C168" t="s">
         <v>512</v>
@@ -4470,7 +4479,7 @@
         <v>514</v>
       </c>
       <c r="B169" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C169" t="s">
         <v>515</v>
@@ -4484,7 +4493,7 @@
         <v>517</v>
       </c>
       <c r="B170" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C170" t="s">
         <v>518</v>
@@ -4498,7 +4507,7 @@
         <v>520</v>
       </c>
       <c r="B171" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C171" t="s">
         <v>521</v>
@@ -4512,7 +4521,7 @@
         <v>523</v>
       </c>
       <c r="B172" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C172" t="s">
         <v>524</v>
@@ -4526,21 +4535,21 @@
         <v>526</v>
       </c>
       <c r="B173" t="s">
+        <v>494</v>
+      </c>
+      <c r="C173" t="s">
         <v>527</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>528</v>
-      </c>
-      <c r="D173" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>529</v>
+      </c>
+      <c r="B174" t="s">
         <v>530</v>
-      </c>
-      <c r="B174" t="s">
-        <v>527</v>
       </c>
       <c r="C174" t="s">
         <v>531</v>
@@ -4554,7 +4563,7 @@
         <v>533</v>
       </c>
       <c r="B175" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C175" t="s">
         <v>534</v>
@@ -4568,7 +4577,7 @@
         <v>536</v>
       </c>
       <c r="B176" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C176" t="s">
         <v>537</v>
@@ -4582,7 +4591,7 @@
         <v>539</v>
       </c>
       <c r="B177" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C177" t="s">
         <v>540</v>
@@ -4596,7 +4605,7 @@
         <v>542</v>
       </c>
       <c r="B178" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C178" t="s">
         <v>543</v>
@@ -4610,7 +4619,7 @@
         <v>545</v>
       </c>
       <c r="B179" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C179" t="s">
         <v>546</v>
@@ -4624,7 +4633,7 @@
         <v>548</v>
       </c>
       <c r="B180" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C180" t="s">
         <v>549</v>
@@ -4638,7 +4647,7 @@
         <v>551</v>
       </c>
       <c r="B181" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C181" t="s">
         <v>552</v>
@@ -4652,7 +4661,7 @@
         <v>554</v>
       </c>
       <c r="B182" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C182" t="s">
         <v>555</v>
@@ -4666,7 +4675,7 @@
         <v>557</v>
       </c>
       <c r="B183" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="C183" t="s">
         <v>558</v>
@@ -4680,7 +4689,7 @@
         <v>560</v>
       </c>
       <c r="B184" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C184" t="s">
         <v>561</v>
@@ -4694,7 +4703,7 @@
         <v>563</v>
       </c>
       <c r="B185" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C185" t="s">
         <v>564</v>
@@ -4708,7 +4717,7 @@
         <v>566</v>
       </c>
       <c r="B186" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C186" t="s">
         <v>567</v>
@@ -4722,7 +4731,7 @@
         <v>569</v>
       </c>
       <c r="B187" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C187" t="s">
         <v>570</v>
@@ -4736,7 +4745,7 @@
         <v>572</v>
       </c>
       <c r="B188" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C188" t="s">
         <v>573</v>
@@ -4750,7 +4759,7 @@
         <v>575</v>
       </c>
       <c r="B189" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C189" t="s">
         <v>576</v>
@@ -4764,7 +4773,7 @@
         <v>578</v>
       </c>
       <c r="B190" t="s">
-        <v>435</v>
+        <v>573</v>
       </c>
       <c r="C190" t="s">
         <v>579</v>
@@ -4813,6 +4822,20 @@
       </c>
       <c r="D193" t="s">
         <v>589</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>590</v>
+      </c>
+      <c r="B194" t="s">
+        <v>435</v>
+      </c>
+      <c r="C194" t="s">
+        <v>591</v>
+      </c>
+      <c r="D194" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
